--- a/study/ueq_results/Combined.xlsx
+++ b/study/ueq_results/Combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bibliotheken\Desktop\Skripte\MA\ma-ems\study\ueq_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3FAD55-18D1-4856-8FC7-58E52EEA7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CB859-2AC5-4F30-AC42-DC3D9770A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F1B1153D-921C-4FBC-B0E0-AC4F4A99865B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F1B1153D-921C-4FBC-B0E0-AC4F4A99865B}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -248,13 +248,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0769230769230769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36538461538461536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72115384615384615</c:v>
+                  <c:v>1.1785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48214285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8303571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,13 +834,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0769230769230769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36538461538461536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72115384615384615</c:v>
+                  <c:v>1.1785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48214285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8303571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,13 +979,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.125</c:v>
+                  <c:v>0.8214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5535714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,13 +1565,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.125</c:v>
+                  <c:v>0.8214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5535714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,16 +1707,16 @@
             <c:numRef>
               <c:f>[3]Results!$L$4:$L$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2749999999999999</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.6785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0357142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,7 +1896,7 @@
             <c:numRef>
               <c:f>[3]Benchmark!$B$26:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
@@ -2296,13 +2296,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>1.2749999999999999</c:v>
+                  <c:v>0.6785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0357142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,7 +2355,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2438,16 +2438,16 @@
             <c:numRef>
               <c:f>[4]Results!$L$4:$L$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1916666666666667</c:v>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2678571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2767857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,7 +2627,7 @@
             <c:numRef>
               <c:f>[4]Benchmark!$B$26:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
@@ -3027,13 +3027,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1916666666666667</c:v>
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2678571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.2767857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,7 +3086,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3467,7 +3467,7 @@
             <v>Pragmatische Qualität</v>
           </cell>
           <cell r="L4">
-            <v>1.0769230769230769</v>
+            <v>1.1785714285714286</v>
           </cell>
         </row>
         <row r="5">
@@ -3475,7 +3475,7 @@
             <v>Hedonische Qualität</v>
           </cell>
           <cell r="L5">
-            <v>0.36538461538461536</v>
+            <v>0.48214285714285715</v>
           </cell>
         </row>
         <row r="6">
@@ -3483,7 +3483,7 @@
             <v>Overall</v>
           </cell>
           <cell r="L6">
-            <v>0.72115384615384615</v>
+            <v>0.8303571428571429</v>
           </cell>
         </row>
       </sheetData>
@@ -3536,7 +3536,7 @@
             <v>0.76</v>
           </cell>
           <cell r="H26">
-            <v>1.0769230769230769</v>
+            <v>1.1785714285714286</v>
           </cell>
         </row>
         <row r="27">
@@ -3562,7 +3562,7 @@
             <v>0.90999999999999992</v>
           </cell>
           <cell r="H27">
-            <v>0.36538461538461536</v>
+            <v>0.48214285714285715</v>
           </cell>
         </row>
         <row r="28">
@@ -3588,7 +3588,7 @@
             <v>0.91999999999999993</v>
           </cell>
           <cell r="H28">
-            <v>0.72115384615384615</v>
+            <v>0.8303571428571429</v>
           </cell>
         </row>
       </sheetData>
@@ -3628,7 +3628,7 @@
             <v>Pragmatische Qualität</v>
           </cell>
           <cell r="L4">
-            <v>0.8</v>
+            <v>0.8214285714285714</v>
           </cell>
         </row>
         <row r="5">
@@ -3636,7 +3636,7 @@
             <v>Hedonische Qualität</v>
           </cell>
           <cell r="L5">
-            <v>1.45</v>
+            <v>1.5535714285714286</v>
           </cell>
         </row>
         <row r="6">
@@ -3644,7 +3644,7 @@
             <v>Overall</v>
           </cell>
           <cell r="L6">
-            <v>1.125</v>
+            <v>1.1875</v>
           </cell>
         </row>
       </sheetData>
@@ -3697,7 +3697,7 @@
             <v>0.76</v>
           </cell>
           <cell r="H26">
-            <v>0.8</v>
+            <v>0.8214285714285714</v>
           </cell>
         </row>
         <row r="27">
@@ -3723,7 +3723,7 @@
             <v>0.90999999999999992</v>
           </cell>
           <cell r="H27">
-            <v>1.45</v>
+            <v>1.5535714285714286</v>
           </cell>
         </row>
         <row r="28">
@@ -3749,7 +3749,7 @@
             <v>0.91999999999999993</v>
           </cell>
           <cell r="H28">
-            <v>1.125</v>
+            <v>1.1875</v>
           </cell>
         </row>
       </sheetData>
@@ -3789,7 +3789,7 @@
             <v>Pragmatische Qualität</v>
           </cell>
           <cell r="L4">
-            <v>0.6</v>
+            <v>0.6785714285714286</v>
           </cell>
         </row>
         <row r="5">
@@ -3797,7 +3797,7 @@
             <v>Hedonische Qualität</v>
           </cell>
           <cell r="L5">
-            <v>1.95</v>
+            <v>2.0357142857142856</v>
           </cell>
         </row>
         <row r="6">
@@ -3805,12 +3805,12 @@
             <v>Overall</v>
           </cell>
           <cell r="L6">
-            <v>1.2749999999999999</v>
+            <v>1.3571428571428572</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="25">
           <cell r="B25" t="str">
@@ -3858,7 +3858,7 @@
             <v>0.76</v>
           </cell>
           <cell r="H26">
-            <v>0.6</v>
+            <v>0.6785714285714286</v>
           </cell>
         </row>
         <row r="27">
@@ -3884,7 +3884,7 @@
             <v>0.90999999999999992</v>
           </cell>
           <cell r="H27">
-            <v>1.95</v>
+            <v>2.0357142857142856</v>
           </cell>
         </row>
         <row r="28">
@@ -3910,13 +3910,13 @@
             <v>0.91999999999999993</v>
           </cell>
           <cell r="H28">
-            <v>1.2749999999999999</v>
+            <v>1.3571428571428572</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3950,7 +3950,7 @@
             <v>Pragmatische Qualität</v>
           </cell>
           <cell r="L4">
-            <v>0.26666666666666666</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="5">
@@ -3958,7 +3958,7 @@
             <v>Hedonische Qualität</v>
           </cell>
           <cell r="L5">
-            <v>2.1166666666666667</v>
+            <v>2.2678571428571428</v>
           </cell>
         </row>
         <row r="6">
@@ -3966,12 +3966,12 @@
             <v>Overall</v>
           </cell>
           <cell r="L6">
-            <v>1.1916666666666667</v>
+            <v>1.2767857142857142</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="25">
           <cell r="B25" t="str">
@@ -4019,7 +4019,7 @@
             <v>0.76</v>
           </cell>
           <cell r="H26">
-            <v>0.26666666666666666</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="27">
@@ -4045,7 +4045,7 @@
             <v>0.90999999999999992</v>
           </cell>
           <cell r="H27">
-            <v>2.1166666666666667</v>
+            <v>2.2678571428571428</v>
           </cell>
         </row>
         <row r="28">
@@ -4071,13 +4071,13 @@
             <v>0.91999999999999993</v>
           </cell>
           <cell r="H28">
-            <v>1.1916666666666667</v>
+            <v>1.2767857142857142</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4383,7 +4383,7 @@
   <dimension ref="G2:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,16 +4422,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.76923076923076927</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I3" s="1">
-        <v>2.1923076923076921</v>
+        <v>2.0274725274725274</v>
       </c>
       <c r="J3" s="1">
-        <v>1.4806443503784736</v>
+        <v>1.4238934396479701</v>
       </c>
       <c r="K3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -4447,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3">
-        <v>1.0769230769230769</v>
+        <v>1.1785714285714286</v>
       </c>
     </row>
     <row r="4" spans="7:18" x14ac:dyDescent="0.25">
@@ -4455,16 +4455,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1.7692307692307692</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="I4" s="1">
-        <v>1.5256410256410255</v>
+        <v>1.412087912087912</v>
       </c>
       <c r="J4" s="1">
-        <v>1.2351684199496948</v>
+        <v>1.1883130530663677</v>
       </c>
       <c r="K4" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -4480,7 +4480,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3">
-        <v>0.36538461538461536</v>
+        <v>0.48214285714285715</v>
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
@@ -4488,16 +4488,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.53846153846153844</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I5" s="1">
-        <v>2.6025641025641026</v>
+        <v>2.0274725274725274</v>
       </c>
       <c r="J5" s="1">
-        <v>1.6132464481796025</v>
+        <v>1.4238934396479701</v>
       </c>
       <c r="K5" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -4513,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3">
-        <v>0.72115384615384615</v>
+        <v>0.8303571428571429</v>
       </c>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
@@ -4521,16 +4521,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>1.2307692307692308</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="I6" s="1">
-        <v>3.1923076923076921</v>
+        <v>3.0164835164835164</v>
       </c>
       <c r="J6" s="1">
-        <v>1.7867030229749128</v>
+        <v>1.7368026705655184</v>
       </c>
       <c r="K6" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -4549,16 +4549,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>0.84615384615384615</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I7" s="1">
-        <v>2.641025641025641</v>
+        <v>2.5329670329670333</v>
       </c>
       <c r="J7" s="1">
-        <v>1.6251232694862383</v>
+        <v>1.5915297775935684</v>
       </c>
       <c r="K7" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -4576,16 +4576,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>0.69230769230769229</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I8" s="1">
-        <v>2.5641025641025643</v>
+        <v>2.4395604395604398</v>
       </c>
       <c r="J8" s="1">
-        <v>1.6012815380508714</v>
+        <v>1.5619092289760119</v>
       </c>
       <c r="K8" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -4603,16 +4603,16 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>-0.30769230769230771</v>
+        <v>-0.14285714285714285</v>
       </c>
       <c r="I9" s="1">
-        <v>3.7307692307692304</v>
+        <v>3.6703296703296706</v>
       </c>
       <c r="J9" s="1">
-        <v>1.9315199276138029</v>
+        <v>1.9158104473902606</v>
       </c>
       <c r="K9" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -4629,16 +4629,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>0.23076923076923078</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I10" s="1">
-        <v>4.5256410256410255</v>
+        <v>4.2197802197802199</v>
       </c>
       <c r="J10" s="1">
-        <v>2.1273554065179203</v>
+        <v>2.0542103640523819</v>
       </c>
       <c r="K10" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -4660,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E0D46-CFF2-4400-8B3B-678EDFE8C141}">
   <dimension ref="G2:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,16 +4700,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I3" s="1">
-        <v>2.7809523809523813</v>
+        <v>2.9505494505494507</v>
       </c>
       <c r="J3" s="1">
-        <v>1.667618775665584</v>
+        <v>1.7177163475234933</v>
       </c>
       <c r="K3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -4725,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4" spans="7:18" x14ac:dyDescent="0.25">
@@ -4733,16 +4733,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1.1333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>2.6952380952380954</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="J4" s="1">
-        <v>1.6417180315870614</v>
+        <v>1.6172150801252798</v>
       </c>
       <c r="K4" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -4758,7 +4758,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3">
-        <v>1.45</v>
+        <v>1.5535714285714286</v>
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
@@ -4766,16 +4766,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1333333333333333</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I5" s="1">
-        <v>2.2666666666666666</v>
+        <v>2.0659340659340661</v>
       </c>
       <c r="J5" s="1">
-        <v>1.505545305418162</v>
+        <v>1.4373357526806554</v>
       </c>
       <c r="K5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -4791,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3">
-        <v>1.125</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
@@ -4799,16 +4799,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>0.2</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I6" s="1">
-        <v>2.6</v>
+        <v>2.7967032967032965</v>
       </c>
       <c r="J6" s="1">
-        <v>1.61245154965971</v>
+        <v>1.6723346844167577</v>
       </c>
       <c r="K6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -4827,16 +4827,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>1.5333333333333334</v>
+        <v>1.6428571428571428</v>
       </c>
       <c r="I7" s="1">
-        <v>1.5523809523809524</v>
+        <v>1.4780219780219781</v>
       </c>
       <c r="J7" s="1">
-        <v>1.2459458063579461</v>
+        <v>1.2157392722216298</v>
       </c>
       <c r="K7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -4854,16 +4854,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>1.7333333333333334</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="I8" s="1">
-        <v>0.92380952380952353</v>
+        <v>0.74725274725274737</v>
       </c>
       <c r="J8" s="1">
-        <v>0.96115010472325468</v>
+        <v>0.86443782150756654</v>
       </c>
       <c r="K8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -4881,16 +4881,16 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>1.2</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I9" s="1">
-        <v>1.5999999999999999</v>
+        <v>1.6043956043956045</v>
       </c>
       <c r="J9" s="1">
-        <v>1.2649110640673518</v>
+        <v>1.2666473875533018</v>
       </c>
       <c r="K9" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -4907,16 +4907,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>1.3333333333333333</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I10" s="1">
-        <v>2.2380952380952381</v>
+        <v>2.2637362637362637</v>
       </c>
       <c r="J10" s="1">
-        <v>1.4960264830861913</v>
+        <v>1.5045717874984443</v>
       </c>
       <c r="K10" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -4939,7 +4939,7 @@
   <dimension ref="G2:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,16 +4978,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.13333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I3" s="1">
-        <v>3.6952380952380954</v>
+        <v>3.604395604395604</v>
       </c>
       <c r="J3" s="1">
-        <v>1.9223002094465098</v>
+        <v>1.8985245861972935</v>
       </c>
       <c r="K3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -5003,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3">
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="4" spans="7:18" x14ac:dyDescent="0.25">
@@ -5011,16 +5011,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="I4" s="1">
-        <v>1.8571428571428572</v>
+        <v>1.9175824175824174</v>
       </c>
       <c r="J4" s="1">
-        <v>1.3627702877384937</v>
+        <v>1.3847680013570567</v>
       </c>
       <c r="K4" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -5036,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3">
-        <v>1.95</v>
+        <v>2.0357142857142856</v>
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
@@ -5044,16 +5044,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I5" s="1">
-        <v>3.3142857142857141</v>
+        <v>3.5164835164835164</v>
       </c>
       <c r="J5" s="1">
-        <v>1.820517979665599</v>
+        <v>1.8752289237539816</v>
       </c>
       <c r="K5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -5069,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3">
-        <v>1.2749999999999999</v>
+        <v>1.3571428571428572</v>
       </c>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
@@ -5077,16 +5077,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>3.1238095238095238</v>
+        <v>3.3461538461538463</v>
       </c>
       <c r="J6" s="1">
-        <v>1.7674302033770737</v>
+        <v>1.8292495308606331</v>
       </c>
       <c r="K6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -5105,16 +5105,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>2.0714285714285716</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8571428571428571</v>
+        <v>0.84065934065934078</v>
       </c>
       <c r="J7" s="1">
-        <v>0.92582009977255142</v>
+        <v>0.91687476825318992</v>
       </c>
       <c r="K7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -5132,16 +5132,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.1333333333333333</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="I8" s="1">
-        <v>0.83809523809523812</v>
+        <v>0.79670329670329698</v>
       </c>
       <c r="J8" s="1">
-        <v>0.91547541643412689</v>
+        <v>0.8925823753039811</v>
       </c>
       <c r="K8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -5159,16 +5159,16 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>1.7333333333333334</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="I9" s="1">
-        <v>1.495238095238095</v>
+        <v>1.5659340659340657</v>
       </c>
       <c r="J9" s="1">
-        <v>1.2227992865708153</v>
+        <v>1.2513728724621074</v>
       </c>
       <c r="K9" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -5185,16 +5185,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>1.9333333333333333</v>
+        <v>2.0714285714285716</v>
       </c>
       <c r="I10" s="1">
-        <v>1.495238095238095</v>
+        <v>1.3021978021978025</v>
       </c>
       <c r="J10" s="1">
-        <v>1.2227992865708153</v>
+        <v>1.1411388181101378</v>
       </c>
       <c r="K10" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -5216,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A2A09-F11B-47C3-BB0B-41630D44D4CB}">
   <dimension ref="G2:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,16 +5256,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.13333333333333333</v>
+        <v>-7.1428571428571425E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>4.2666666666666666</v>
+        <v>4.5329670329670328</v>
       </c>
       <c r="J3" s="1">
-        <v>2.0655911179772888</v>
+        <v>2.1290765681316004</v>
       </c>
       <c r="K3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -5281,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3">
-        <v>0.26666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="4" spans="7:18" x14ac:dyDescent="0.25">
@@ -5289,16 +5289,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>0.93333333333333335</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I4" s="1">
-        <v>2.2095238095238097</v>
+        <v>2.3791208791208791</v>
       </c>
       <c r="J4" s="1">
-        <v>1.4864467059144131</v>
+        <v>1.5424399110243741</v>
       </c>
       <c r="K4" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3">
-        <v>2.1166666666666667</v>
+        <v>2.2678571428571428</v>
       </c>
     </row>
     <row r="5" spans="7:18" x14ac:dyDescent="0.25">
@@ -5322,16 +5322,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I5" s="1">
-        <v>3.0285714285714285</v>
+        <v>3.2087912087912089</v>
       </c>
       <c r="J5" s="1">
-        <v>1.740279123753264</v>
+        <v>1.7913099142223294</v>
       </c>
       <c r="K5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -5347,7 +5347,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3">
-        <v>1.1916666666666667</v>
+        <v>1.2767857142857142</v>
       </c>
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
@@ -5355,16 +5355,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>-0.53333333333333333</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="I6" s="1">
-        <v>1.8380952380952382</v>
+        <v>1.9560439560439562</v>
       </c>
       <c r="J6" s="1">
-        <v>1.3557637102737476</v>
+        <v>1.3985864135061359</v>
       </c>
       <c r="K6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -5383,16 +5383,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8571428571428571</v>
+        <v>0.59340659340659296</v>
       </c>
       <c r="J7" s="1">
-        <v>0.92582009977255142</v>
+        <v>0.77032888651964293</v>
       </c>
       <c r="K7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -5410,16 +5410,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.3571428571428572</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1714285714285719</v>
+        <v>0.86263736263736213</v>
       </c>
       <c r="J8" s="1">
-        <v>1.0823255385643322</v>
+        <v>0.92878273166406478</v>
       </c>
       <c r="K8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -5437,16 +5437,16 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>1.8666666666666667</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>1.1238095238095238</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="J9" s="1">
-        <v>1.0600988273786194</v>
+        <v>0.96076892283052284</v>
       </c>
       <c r="K9" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -5463,16 +5463,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>2.4</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="I10" s="1">
-        <v>0.97142857142857097</v>
+        <v>0.57142857142857162</v>
       </c>
       <c r="J10" s="1">
-        <v>0.98561076060916208</v>
+        <v>0.75592894601845462</v>
       </c>
       <c r="K10" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
